--- a/Data/EC/NIT-9000339437.xlsx
+++ b/Data/EC/NIT-9000339437.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3EB2283-E1B1-4B98-AA05-F1F0D3CB91B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09776962-9F25-48C3-A400-4A78ADE864F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A02AAF1C-385D-465A-8E57-DF0ABFA7D640}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{972D84EA-890E-46BC-9B8E-96BD23C7473D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,178 +71,178 @@
     <t>ANA MILENA AMADOR RODRIGUEZ</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>43787781</t>
+  </si>
+  <si>
+    <t>LUZ MARIAM ARISTIZABAL OCAMPO</t>
+  </si>
+  <si>
+    <t>33102872</t>
+  </si>
+  <si>
+    <t>ALCIRA CARRILLO PEREZ</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
     <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>43787781</t>
-  </si>
-  <si>
-    <t>LUZ MARIAM ARISTIZABAL OCAMPO</t>
-  </si>
-  <si>
-    <t>33102872</t>
-  </si>
-  <si>
-    <t>ALCIRA CARRILLO PEREZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -341,7 +341,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -354,9 +356,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -556,23 +556,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -600,10 +600,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -656,7 +656,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2022355F-0C90-0697-F2B8-1E1496FDBF18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C03D0ED-8908-4C8F-424F-9FA76C0959BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1007,7 +1007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011E3D63-61F8-4E83-ACBC-BB1AB1DE65B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B7E2F2-9ADF-412C-A265-E1CA73625270}">
   <dimension ref="B2:J183"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1185,7 +1185,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>21874</v>
+        <v>25774</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1199,19 +1199,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1222,16 +1222,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1251,10 +1251,10 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1268,19 +1268,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1291,16 +1291,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1323,7 +1323,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1337,19 +1337,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1360,16 +1360,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1389,10 +1389,10 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1406,19 +1406,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G26" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1429,16 +1429,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1458,10 +1458,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1475,19 +1475,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G29" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1498,16 +1498,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1527,10 +1527,10 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1544,19 +1544,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G32" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1567,16 +1567,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1596,10 +1596,10 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1613,19 +1613,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G35" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1636,16 +1636,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1665,10 +1665,10 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1682,19 +1682,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G38" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1705,16 +1705,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1734,10 +1734,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1751,19 +1751,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G41" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1774,16 +1774,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G42" s="18">
         <v>781242</v>
@@ -1803,10 +1803,10 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -1820,19 +1820,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F44" s="18">
         <v>25774</v>
       </c>
       <c r="G44" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1843,13 +1843,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F45" s="18">
         <v>25774</v>
@@ -1872,7 +1872,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F46" s="18">
         <v>25774</v>
@@ -1889,19 +1889,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F47" s="18">
         <v>25774</v>
       </c>
       <c r="G47" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1912,13 +1912,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F48" s="18">
         <v>25774</v>
@@ -1941,7 +1941,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F49" s="18">
         <v>25774</v>
@@ -1958,19 +1958,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F50" s="18">
         <v>25774</v>
       </c>
       <c r="G50" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1981,13 +1981,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F51" s="18">
         <v>25774</v>
@@ -2010,7 +2010,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F52" s="18">
         <v>25774</v>
@@ -2027,19 +2027,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F53" s="18">
         <v>25774</v>
       </c>
       <c r="G53" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2050,13 +2050,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F54" s="18">
         <v>25774</v>
@@ -2079,7 +2079,7 @@
         <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F55" s="18">
         <v>25774</v>
@@ -2096,19 +2096,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F56" s="18">
         <v>25774</v>
       </c>
       <c r="G56" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2119,13 +2119,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F57" s="18">
         <v>25774</v>
@@ -2148,7 +2148,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="F58" s="18">
         <v>25774</v>
@@ -2165,19 +2165,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="F59" s="18">
         <v>25774</v>
       </c>
       <c r="G59" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2188,13 +2188,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F60" s="18">
         <v>25774</v>
@@ -2217,7 +2217,7 @@
         <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F61" s="18">
         <v>25774</v>
@@ -2234,19 +2234,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="F62" s="18">
         <v>25774</v>
       </c>
       <c r="G62" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2257,13 +2257,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F63" s="18">
         <v>25774</v>
@@ -2286,7 +2286,7 @@
         <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F64" s="18">
         <v>25774</v>
@@ -2303,19 +2303,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F65" s="18">
         <v>25774</v>
       </c>
       <c r="G65" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2326,13 +2326,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="F66" s="18">
         <v>25774</v>
@@ -2355,7 +2355,7 @@
         <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="F67" s="18">
         <v>25774</v>
@@ -2372,19 +2372,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="F68" s="18">
         <v>25774</v>
       </c>
       <c r="G68" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2395,13 +2395,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F69" s="18">
         <v>25774</v>
@@ -2418,19 +2418,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F70" s="18">
-        <v>18042</v>
+        <v>25774</v>
       </c>
       <c r="G70" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2441,13 +2441,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F71" s="18">
         <v>25774</v>
@@ -2464,19 +2464,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F72" s="18">
         <v>25774</v>
       </c>
       <c r="G72" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2487,19 +2487,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F73" s="18">
         <v>25774</v>
       </c>
       <c r="G73" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2510,13 +2510,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F74" s="18">
         <v>25774</v>
@@ -2533,19 +2533,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F75" s="18">
         <v>25774</v>
       </c>
       <c r="G75" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2556,19 +2556,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F76" s="18">
         <v>25774</v>
       </c>
       <c r="G76" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2579,13 +2579,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F77" s="18">
         <v>25774</v>
@@ -2602,19 +2602,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F78" s="18">
         <v>25774</v>
       </c>
       <c r="G78" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2625,19 +2625,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F79" s="18">
         <v>25774</v>
       </c>
       <c r="G79" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2648,13 +2648,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F80" s="18">
         <v>25774</v>
@@ -2671,19 +2671,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F81" s="18">
         <v>25774</v>
       </c>
       <c r="G81" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2694,19 +2694,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F82" s="18">
         <v>25774</v>
       </c>
       <c r="G82" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2717,13 +2717,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F83" s="18">
         <v>25774</v>
@@ -2740,19 +2740,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F84" s="18">
         <v>25774</v>
       </c>
       <c r="G84" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2763,19 +2763,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F85" s="18">
         <v>25774</v>
       </c>
       <c r="G85" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2786,13 +2786,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F86" s="18">
         <v>25774</v>
@@ -2809,19 +2809,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F87" s="18">
         <v>25774</v>
       </c>
       <c r="G87" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2832,19 +2832,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F88" s="18">
         <v>25774</v>
       </c>
       <c r="G88" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2855,13 +2855,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F89" s="18">
         <v>25774</v>
@@ -2878,19 +2878,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F90" s="18">
         <v>25774</v>
       </c>
       <c r="G90" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2901,19 +2901,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F91" s="18">
         <v>25774</v>
       </c>
       <c r="G91" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2924,13 +2924,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F92" s="18">
         <v>25774</v>
@@ -2947,19 +2947,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F93" s="18">
         <v>25774</v>
       </c>
       <c r="G93" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -2970,19 +2970,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F94" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G94" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -2993,13 +2993,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F95" s="18">
         <v>25774</v>
@@ -3016,19 +3016,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F96" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G96" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3039,19 +3039,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F97" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G97" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3062,13 +3062,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F98" s="18">
         <v>25774</v>
@@ -3085,19 +3085,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F99" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G99" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3108,19 +3108,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F100" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G100" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3131,13 +3131,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F101" s="18">
         <v>25774</v>
@@ -3154,19 +3154,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E102" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F102" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G102" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3177,19 +3177,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F103" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G103" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3200,13 +3200,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F104" s="18">
         <v>25774</v>
@@ -3223,19 +3223,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F105" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G105" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3246,19 +3246,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F106" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G106" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3269,13 +3269,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F107" s="18">
         <v>25774</v>
@@ -3292,19 +3292,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F108" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G108" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3315,19 +3315,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F109" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G109" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3338,13 +3338,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F110" s="18">
         <v>25774</v>
@@ -3361,19 +3361,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F111" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G111" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3384,19 +3384,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F112" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G112" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3407,13 +3407,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F113" s="18">
         <v>25774</v>
@@ -3430,19 +3430,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F114" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G114" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3453,19 +3453,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F115" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G115" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3476,13 +3476,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F116" s="18">
         <v>25774</v>
@@ -3499,19 +3499,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F117" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G117" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3522,19 +3522,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F118" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G118" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3545,13 +3545,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F119" s="18">
         <v>25774</v>
@@ -3568,19 +3568,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F120" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G120" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3591,19 +3591,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F121" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G121" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3614,13 +3614,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F122" s="18">
         <v>25774</v>
@@ -3637,19 +3637,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F123" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G123" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3660,16 +3660,16 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F124" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G124" s="18">
         <v>781242</v>
@@ -3683,19 +3683,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F125" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G125" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3706,13 +3706,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="F126" s="18">
         <v>31249</v>
@@ -3729,13 +3729,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="F127" s="18">
         <v>31249</v>
@@ -3752,19 +3752,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F128" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G128" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3775,13 +3775,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F129" s="18">
         <v>31249</v>
@@ -3798,13 +3798,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F130" s="18">
         <v>31249</v>
@@ -3821,19 +3821,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="F131" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G131" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3844,13 +3844,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="F132" s="18">
         <v>31249</v>
@@ -3867,13 +3867,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="F133" s="18">
         <v>31249</v>
@@ -3890,19 +3890,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F134" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G134" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -3913,13 +3913,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="F135" s="18">
         <v>31249</v>
@@ -3936,13 +3936,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="F136" s="18">
         <v>31249</v>
@@ -3959,19 +3959,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="F137" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G137" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -3982,13 +3982,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="F138" s="18">
         <v>31249</v>
@@ -4005,13 +4005,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="F139" s="18">
         <v>31249</v>
@@ -4028,19 +4028,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="F140" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G140" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4051,13 +4051,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="F141" s="18">
         <v>31249</v>
@@ -4074,13 +4074,13 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="F142" s="18">
         <v>31249</v>
@@ -4097,19 +4097,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="F143" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G143" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4120,13 +4120,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="F144" s="18">
         <v>31249</v>
@@ -4143,13 +4143,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F145" s="18">
         <v>31249</v>
@@ -4166,19 +4166,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="F146" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G146" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4189,13 +4189,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="F147" s="18">
         <v>31249</v>
@@ -4212,13 +4212,13 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F148" s="18">
         <v>31249</v>
@@ -4235,19 +4235,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F149" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G149" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4258,13 +4258,13 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F150" s="18">
         <v>31249</v>
@@ -4281,13 +4281,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F151" s="18">
         <v>31249</v>
@@ -4304,19 +4304,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="F152" s="18">
         <v>25774</v>
       </c>
       <c r="G152" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4327,16 +4327,16 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F153" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G153" s="18">
         <v>781242</v>
@@ -4350,16 +4350,16 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="F154" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G154" s="18">
         <v>781242</v>
@@ -4373,19 +4373,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="F155" s="18">
         <v>25774</v>
       </c>
       <c r="G155" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4396,16 +4396,16 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="F156" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G156" s="18">
         <v>781242</v>
@@ -4419,16 +4419,16 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F157" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G157" s="18">
         <v>781242</v>
@@ -4442,19 +4442,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F158" s="18">
         <v>25774</v>
       </c>
       <c r="G158" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4465,16 +4465,16 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F159" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G159" s="18">
         <v>781242</v>
@@ -4488,16 +4488,16 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F160" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G160" s="18">
         <v>781242</v>
@@ -4511,19 +4511,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F161" s="18">
         <v>25774</v>
       </c>
       <c r="G161" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4534,16 +4534,16 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F162" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G162" s="18">
         <v>781242</v>
@@ -4557,16 +4557,16 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F163" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G163" s="18">
         <v>781242</v>
@@ -4580,19 +4580,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F164" s="18">
         <v>25774</v>
       </c>
       <c r="G164" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4603,16 +4603,16 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F165" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G165" s="18">
         <v>781242</v>
@@ -4626,16 +4626,16 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F166" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G166" s="18">
         <v>781242</v>
@@ -4649,19 +4649,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F167" s="18">
         <v>25774</v>
       </c>
       <c r="G167" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4672,16 +4672,16 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F168" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G168" s="18">
         <v>781242</v>
@@ -4695,16 +4695,16 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F169" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G169" s="18">
         <v>781242</v>
@@ -4718,19 +4718,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F170" s="18">
         <v>25774</v>
       </c>
       <c r="G170" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -4741,16 +4741,16 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F171" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G171" s="18">
         <v>781242</v>
@@ -4764,16 +4764,16 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E172" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D172" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E172" s="16" t="s">
-        <v>59</v>
-      </c>
       <c r="F172" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G172" s="18">
         <v>781242</v>
@@ -4787,19 +4787,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E173" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D173" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E173" s="16" t="s">
-        <v>60</v>
-      </c>
       <c r="F173" s="18">
         <v>25774</v>
       </c>
       <c r="G173" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -4810,16 +4810,16 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D174" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E174" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D174" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E174" s="16" t="s">
-        <v>61</v>
-      </c>
       <c r="F174" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G174" s="18">
         <v>781242</v>
@@ -4833,16 +4833,16 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D175" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E175" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E175" s="16" t="s">
-        <v>62</v>
-      </c>
       <c r="F175" s="18">
-        <v>25774</v>
+        <v>21874</v>
       </c>
       <c r="G175" s="18">
         <v>781242</v>
@@ -4856,19 +4856,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D176" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E176" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E176" s="16" t="s">
-        <v>63</v>
-      </c>
       <c r="F176" s="18">
-        <v>25774</v>
+        <v>18042</v>
       </c>
       <c r="G176" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -4879,16 +4879,16 @@
         <v>8</v>
       </c>
       <c r="C177" s="22" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D177" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E177" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E177" s="22" t="s">
-        <v>64</v>
-      </c>
       <c r="F177" s="24">
-        <v>25774</v>
+        <v>21874</v>
       </c>
       <c r="G177" s="24">
         <v>781242</v>
